--- a/data.xlsx
+++ b/data.xlsx
@@ -5,68 +5,130 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_Science\courses\Vision\homework\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumak\Dropbox\computer_science\Vision\homework\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="948" yWindow="0" windowWidth="22092" windowHeight="9672"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="25596" windowHeight="15924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Color Histogram method</t>
   </si>
   <si>
-    <t>[   0.66538463  181.8187    ]</t>
+    <t>Spectral Histogram</t>
   </si>
   <si>
-    <t>[  2.97572444e-01   3.61004900e+02]</t>
+    <t xml:space="preserve"> Spectral Histogram sigma = 0.5</t>
   </si>
   <si>
-    <t>[  3.14913499e-01   3.45593700e+02]</t>
+    <t>Color Histogram</t>
   </si>
   <si>
-    <t>[   0.40124074  207.4939    ]</t>
+    <t>SIFT Descriptor</t>
   </si>
   <si>
-    <t>[  0.95092785  70.5973    ]</t>
+    <t xml:space="preserve">Precision </t>
   </si>
   <si>
-    <t>[   0.48488309  239.2303    ]</t>
+    <t>Category</t>
   </si>
   <si>
-    <t>[   0.54911576  280.4217    ]</t>
+    <t>Rank</t>
   </si>
   <si>
-    <t>[   0.64079177  310.634     ]</t>
+    <t>precision-recall curve</t>
   </si>
   <si>
-    <t>[  2.20977454e-01   3.87766300e+02]</t>
+    <t>catergry</t>
   </si>
   <si>
-    <t>[   0.49248682  269.4929    ]</t>
+    <t>color hist</t>
+  </si>
+  <si>
+    <t>spectral hist</t>
+  </si>
+  <si>
+    <t>sift</t>
+  </si>
+  <si>
+    <t>489, 425</t>
+  </si>
+  <si>
+    <t>439, 425</t>
+  </si>
+  <si>
+    <t>SIFT Feature</t>
+  </si>
+  <si>
+    <t>59, 79</t>
+  </si>
+  <si>
+    <t>9, 79</t>
+  </si>
+  <si>
+    <t>879, 887</t>
+  </si>
+  <si>
+    <t>879, 867</t>
+  </si>
+  <si>
+    <t>57, 98</t>
+  </si>
+  <si>
+    <t>448, 475</t>
+  </si>
+  <si>
+    <t>832, 880</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,13 +151,984 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="485">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -109,6 +1142,2522 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Precision Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7015943659216508E-2"/>
+          <c:y val="0.15939306358381505"/>
+          <c:w val="0.87018902528488284"/>
+          <c:h val="0.59940565594040629"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Color Histogram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.66538463000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29757244399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31491349899999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.40124073999999998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.95092785000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.48488309000000002</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.54911575999999995</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.64079176999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22097745399999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.49248681999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E09-47BC-9D43-3C13B4FD8BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spectral Histogram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.63298204000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28513625500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30566021399999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.31743525</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.95626893999999996</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.46723353000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.52455909999999994</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.61459326000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.210611716</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.44865245999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E09-47BC-9D43-3C13B4FD8BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT Descriptor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.161106692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.133869608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23604918699999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46457385000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67203957000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19055903299999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34058866999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.170553448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19557611799999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19410835600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E09-47BC-9D43-3C13B4FD8BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51881600"/>
+        <c:axId val="51883648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51881600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51883648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51883648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51881600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20119748618379224"/>
+          <c:y val="0.88499461411254243"/>
+          <c:w val="0.79636279160757084"/>
+          <c:h val="8.1286696099403755E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ranks Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Color Histogram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$17:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$17:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>181.81870000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361.00490000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>345.59370000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>207.4939</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>70.597300000000004</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>239.2303</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>280.42169999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>310.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>387.7663</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>269.49290000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB54-4FC9-9BD3-1D2585532E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spectral Histogram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$17:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$17:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>189.80600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368.2534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>349.80709999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>239.74680000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>69.105800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>249.22640000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>300.31220000000002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>332.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>394.2953</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>278.57839999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB54-4FC9-9BD3-1D2585532E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIFT Descriptor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$17:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$17:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>454.34879999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541.54920000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>386.51549999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.8022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.7013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>454.8141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>408.77710000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>605.697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>426.27659999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>430.46719999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB54-4FC9-9BD3-1D2585532E44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51917408"/>
+        <c:axId val="51919888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51917408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51919888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51919888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51917408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>478790</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,70 +3957,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B12"/>
+  <dimension ref="A2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.66538463000000003</v>
+      </c>
+      <c r="C3">
+        <v>181.81870000000001</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.63298204000000002</v>
+      </c>
+      <c r="G3">
+        <v>189.80600000000001</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.161106692</v>
+      </c>
+      <c r="K3" s="3">
+        <v>454.34879999999998</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.29757244399999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>361.00490000000002</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.28513625500000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>368.2534</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.133869608</v>
+      </c>
+      <c r="K4" s="3">
+        <v>541.54920000000004</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.31491349899999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>345.59370000000001</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.30566021399999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>349.80709999999999</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.23604918699999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>386.51549999999997</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.40124073999999998</v>
+      </c>
+      <c r="C6">
+        <v>207.4939</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.31743525</v>
+      </c>
+      <c r="G6">
+        <v>239.74680000000001</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.46457385000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>221.8022</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.95092785000000002</v>
+      </c>
+      <c r="C7">
+        <v>70.597300000000004</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0.95626893999999996</v>
+      </c>
+      <c r="G7">
+        <v>69.105800000000002</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.67203957000000003</v>
+      </c>
+      <c r="K7" s="3">
+        <v>137.7013</v>
+      </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.48488309000000002</v>
+      </c>
+      <c r="C8">
+        <v>239.2303</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0.46723353000000001</v>
+      </c>
+      <c r="G8">
+        <v>249.22640000000001</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.19055903299999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>454.8141</v>
+      </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.54911575999999995</v>
+      </c>
+      <c r="C9">
+        <v>280.42169999999999</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>0.52455909999999994</v>
+      </c>
+      <c r="G9">
+        <v>300.31220000000002</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.34058866999999998</v>
+      </c>
+      <c r="K9" s="3">
+        <v>408.77710000000002</v>
+      </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.64079176999999998</v>
+      </c>
+      <c r="C10">
+        <v>310.63400000000001</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0.61459326000000003</v>
+      </c>
+      <c r="G10">
+        <v>332.68</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.170553448</v>
+      </c>
+      <c r="K10" s="3">
+        <v>605.697</v>
+      </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.22097745399999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>387.7663</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.210611716</v>
+      </c>
+      <c r="G11" s="1">
+        <v>394.2953</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.19557611799999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>426.27659999999997</v>
+      </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.49248681999999999</v>
+      </c>
+      <c r="C12">
+        <v>269.49290000000002</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0.44865245999999998</v>
+      </c>
+      <c r="G12">
+        <v>278.57839999999999</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.19410835600000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>430.46719999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.66538463000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.63298204000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.161106692</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>181.81870000000001</v>
+      </c>
+      <c r="J17">
+        <v>189.80600000000001</v>
+      </c>
+      <c r="K17" s="3">
+        <v>454.34879999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.29757244399999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.28513625500000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.133869608</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>361.00490000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <v>368.2534</v>
+      </c>
+      <c r="K18" s="3">
+        <v>541.54920000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.31491349899999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.30566021399999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.23604918699999999</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>345.59370000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>349.80709999999999</v>
+      </c>
+      <c r="K19" s="3">
+        <v>386.51549999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.40124073999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.31743525</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.46457385000000001</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>207.4939</v>
+      </c>
+      <c r="J20">
+        <v>239.74680000000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>221.8022</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.95092785000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.95626893999999996</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.67203957000000003</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>70.597300000000004</v>
+      </c>
+      <c r="J21">
+        <v>69.105800000000002</v>
+      </c>
+      <c r="K21" s="3">
+        <v>137.7013</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.48488309000000002</v>
+      </c>
+      <c r="D22">
+        <v>0.46723353000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.19055903299999999</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>239.2303</v>
+      </c>
+      <c r="J22">
+        <v>249.22640000000001</v>
+      </c>
+      <c r="K22" s="3">
+        <v>454.8141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0.54911575999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.52455909999999994</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.34058866999999998</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>280.42169999999999</v>
+      </c>
+      <c r="J23">
+        <v>300.31220000000002</v>
+      </c>
+      <c r="K23" s="3">
+        <v>408.77710000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0.64079176999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.61459326000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.170553448</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>310.63400000000001</v>
+      </c>
+      <c r="J24">
+        <v>332.68</v>
+      </c>
+      <c r="K24" s="3">
+        <v>605.697</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.22097745399999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.210611716</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.19557611799999999</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1">
+        <v>387.7663</v>
+      </c>
+      <c r="J25" s="1">
+        <v>394.2953</v>
+      </c>
+      <c r="K25" s="3">
+        <v>426.27659999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.49248681999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.44865245999999998</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.19410835600000001</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>269.49290000000002</v>
+      </c>
+      <c r="J26">
+        <v>278.57839999999999</v>
+      </c>
+      <c r="K26" s="3">
+        <v>430.46719999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="O4" twoDigitTextYear="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>